--- a/endpoint_timing.xlsx
+++ b/endpoint_timing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,74 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-09T12:23:37.609996+00:00</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>/api/inspiration-boards/products/6960ee6adfdda64b2c01ef32</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Inspiration Boards</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.1571</v>
+      </c>
+      <c r="F2" t="n">
+        <v>200</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6925b1e37b5978266363464e</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-09T12:23:37.759328+00:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>/api/inspiration-boards/boards/6960eb294ad6a4df36746c2b</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Inspiration Boards</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0946</v>
+      </c>
+      <c r="F3" t="n">
+        <v>200</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6925b1e37b5978266363464e</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/endpoint_timing.xlsx
+++ b/endpoint_timing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +543,108 @@
       </c>
       <c r="H3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-01-09T13:27:54.321641+00:00</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>/api/inspiration-boards/boards/6960eb294ad6a4df36746c2b</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Inspiration Boards</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1207</v>
+      </c>
+      <c r="F4" t="n">
+        <v>200</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6925b1e37b5978266363464e</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-01-09T13:27:58.901902+00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>/api/inspiration-boards/boards</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Inspiration Boards</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4167</v>
+      </c>
+      <c r="F5" t="n">
+        <v>200</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6925b1e37b5978266363464e</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-01-09T13:27:59.273055+00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GET</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>/api/inspiration-boards/boards</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Inspiration Boards</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3671</v>
+      </c>
+      <c r="F6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6925b1e37b5978266363464e</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/endpoint_timing.xlsx
+++ b/endpoint_timing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,176 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2026-01-09T12:23:37.609996+00:00</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>/api/inspiration-boards/products/6960ee6adfdda64b2c01ef32</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Inspiration Boards</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.1571</v>
-      </c>
-      <c r="F2" t="n">
-        <v>200</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>6925b1e37b5978266363464e</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2026-01-09T12:23:37.759328+00:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>/api/inspiration-boards/boards/6960eb294ad6a4df36746c2b</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Inspiration Boards</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.0946</v>
-      </c>
-      <c r="F3" t="n">
-        <v>200</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>6925b1e37b5978266363464e</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2026-01-09T13:27:54.321641+00:00</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>/api/inspiration-boards/boards/6960eb294ad6a4df36746c2b</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Inspiration Boards</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1207</v>
-      </c>
-      <c r="F4" t="n">
-        <v>200</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6925b1e37b5978266363464e</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2026-01-09T13:27:58.901902+00:00</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>/api/inspiration-boards/boards</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Inspiration Boards</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4167</v>
-      </c>
-      <c r="F5" t="n">
-        <v>200</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>6925b1e37b5978266363464e</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2026-01-09T13:27:59.273055+00:00</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>/api/inspiration-boards/boards</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Inspiration Boards</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3671</v>
-      </c>
-      <c r="F6" t="n">
-        <v>200</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>6925b1e37b5978266363464e</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
